--- a/hw2/graphs.xlsx
+++ b/hw2/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,23 +92,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -118,6 +135,641 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time in ms by number of threads (Anderson's algorithm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>anderson's</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>602871.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2144981016"/>
+        <c:axId val="2121025784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2144981016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121025784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121025784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2144981016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time in ms by number of threads (Fischer's algorithm)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>fischer's</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>148546.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157870.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191202.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>696829.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2147453224"/>
+        <c:axId val="-2147456952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2147453224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2147456952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2147456952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2147453224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -182,59 +834,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>fisher's</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>148546.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>157870.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>191202.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>696829.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
             <c:v>lamport's</c:v>
           </c:tx>
           <c:marker>
@@ -242,7 +841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:f>Sheet1!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -263,77 +862,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>anderson's</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:f>Sheet1!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$10:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>602871.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,11 +893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094726824"/>
-        <c:axId val="2094729960"/>
+        <c:axId val="-2145977656"/>
+        <c:axId val="-2146355144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094726824"/>
+        <c:axId val="-2145977656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094729960"/>
+        <c:crossAx val="-2146355144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -405,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094729960"/>
+        <c:axId val="-2146355144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094726824"/>
+        <c:crossAx val="-2145977656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1120,7 +1663,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,6 +1676,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1430,7 +2049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1438,29 +2057,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -1471,7 +2090,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -1480,7 +2099,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>4</v>
       </c>
@@ -1489,7 +2108,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5">
         <v>8</v>
       </c>
@@ -1498,7 +2117,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -1509,7 +2128,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -1518,7 +2137,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8">
         <v>4</v>
       </c>
@@ -1527,7 +2146,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>8</v>
       </c>
@@ -1536,7 +2155,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B10">
@@ -1547,16 +2166,16 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>4</v>
       </c>
@@ -1565,13 +2184,25 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13">
         <v>602871</v>
       </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/hw2/graphs.xlsx
+++ b/hw2/graphs.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="q3" sheetId="1" r:id="rId1"/>
+    <sheet name="q4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>numThreads</t>
   </si>
@@ -38,12 +39,18 @@
   <si>
     <t>Anderson's</t>
   </si>
+  <si>
+    <t># of threads</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +81,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,8 +104,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -100,25 +128,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -206,7 +282,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:f>'q3'!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -227,7 +303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$13</c:f>
+              <c:f>'q3'!$C$10:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -258,11 +334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144981016"/>
-        <c:axId val="2121025784"/>
+        <c:axId val="2121215752"/>
+        <c:axId val="2121217768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144981016"/>
+        <c:axId val="2121215752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121025784"/>
+        <c:crossAx val="2121217768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -313,7 +389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121025784"/>
+        <c:axId val="2121217768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144981016"/>
+        <c:crossAx val="2121215752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -523,7 +599,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>'q3'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -544,7 +620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>'q3'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -575,11 +651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147453224"/>
-        <c:axId val="-2147456952"/>
+        <c:axId val="2120201464"/>
+        <c:axId val="2119214488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147453224"/>
+        <c:axId val="2120201464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147456952"/>
+        <c:crossAx val="2119214488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147456952"/>
+        <c:axId val="2119214488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147453224"/>
+        <c:crossAx val="2120201464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,7 +917,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$9</c:f>
+              <c:f>'q3'!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -862,7 +938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:f>'q3'!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -893,11 +969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145977656"/>
-        <c:axId val="-2146355144"/>
+        <c:axId val="2119179896"/>
+        <c:axId val="2119176200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145977656"/>
+        <c:axId val="2119179896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +1016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146355144"/>
+        <c:crossAx val="2119176200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146355144"/>
+        <c:axId val="2119176200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145977656"/>
+        <c:crossAx val="2119179896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1087,6 +1163,216 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>q4a</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'q4'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'q4'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0136561393738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0144650936127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.011656999588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0121839046478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.011892080307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0123460292816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0120089054108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0120160579681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0118579864502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2120825800"/>
+        <c:axId val="2120827208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120825800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2120827208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120827208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2120825800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1663,7 +1949,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1985,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +2023,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E541417-B86E-4608-A8DE-EEDE65F561D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,6 +2038,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2049,7 +2370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2059,150 +2380,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>148546</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>157870</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>191202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>696829</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>602871</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2210,8 +2532,126 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup scale="61" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="29" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="17" max="1048575" man="1"/>
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.3656139373800001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.44650936127E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1656999588000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.21839046478E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.1892080306999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.23460292816E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.20089054108E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.20160579681E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.18579864502E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="87" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="28" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
